--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.001</v>
+        <v>-0.298</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.864</v>
+        <v>-1.346</v>
       </c>
       <c r="D4" t="n">
-        <v>-13.69</v>
+        <v>351.68</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.023</v>
+        <v>0.014</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.074</v>
+        <v>0.104</v>
       </c>
       <c r="D5" t="n">
-        <v>221.74</v>
+        <v>642.86</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.367</v>
+        <v>3.8</v>
       </c>
       <c r="C6" t="n">
-        <v>5.931</v>
+        <v>6.871</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.85</v>
+        <v>80.81999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.396</v>
+        <v>0.23</v>
       </c>
       <c r="C7" t="n">
-        <v>0.365</v>
+        <v>0.459</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.83</v>
+        <v>99.56999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.847</v>
+        <v>13.834</v>
       </c>
       <c r="C8" t="n">
-        <v>15.521</v>
+        <v>14.336</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.06</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.485</v>
+        <v>3.196</v>
       </c>
       <c r="C9" t="n">
-        <v>4.254</v>
+        <v>7.019</v>
       </c>
       <c r="D9" t="n">
-        <v>-22.44</v>
+        <v>119.62</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.806</v>
+        <v>27.373</v>
       </c>
       <c r="C10" t="n">
-        <v>53.304</v>
+        <v>60.361</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.79</v>
+        <v>120.51</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.311</v>
+        <v>0.114</v>
       </c>
       <c r="C11" t="n">
-        <v>0.276</v>
+        <v>0.397</v>
       </c>
       <c r="D11" t="n">
-        <v>-11.25</v>
+        <v>248.25</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.425</v>
+        <v>-0.865</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.159</v>
+        <v>-3.112</v>
       </c>
       <c r="D12" t="n">
-        <v>-10.97</v>
+        <v>259.77</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.603</v>
+        <v>5.232</v>
       </c>
       <c r="C13" t="n">
-        <v>7.301</v>
+        <v>7.769</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.97</v>
+        <v>48.49</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.821218028664589</v>
+        <v>3.688475410143534</v>
       </c>
       <c r="C4" t="n">
-        <v>3.682289972901344</v>
+        <v>4.442982060568673</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.64</v>
+        <v>20.46</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5048633830247966</v>
+        <v>0.7387813992586866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3940505165975381</v>
+        <v>3.120716199987422</v>
       </c>
       <c r="G4" t="n">
-        <v>-21.95</v>
+        <v>322.41</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.54925824486028</v>
+        <v>5.704662682315442</v>
       </c>
       <c r="C6" t="n">
-        <v>4.680294369609381</v>
+        <v>5.904063626287734</v>
       </c>
       <c r="D6" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3872076777694634</v>
+        <v>0.4019315556476864</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8520220189893892</v>
+        <v>0.4032155054815596</v>
       </c>
       <c r="G6" t="n">
-        <v>120.04</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.298</v>
+        <v>-0.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.346</v>
+        <v>-0.731</v>
       </c>
       <c r="D4" t="n">
-        <v>351.68</v>
+        <v>1727.5</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104</v>
+        <v>-0.034</v>
       </c>
       <c r="D5" t="n">
-        <v>642.86</v>
+        <v>209.09</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.8</v>
+        <v>2.783</v>
       </c>
       <c r="C6" t="n">
-        <v>6.871</v>
+        <v>4.632</v>
       </c>
       <c r="D6" t="n">
-        <v>80.81999999999999</v>
+        <v>66.44</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.23</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.459</v>
+        <v>0.299</v>
       </c>
       <c r="D7" t="n">
-        <v>99.56999999999999</v>
+        <v>43.06</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.834</v>
+        <v>10.15</v>
       </c>
       <c r="C8" t="n">
-        <v>14.336</v>
+        <v>14.053</v>
       </c>
       <c r="D8" t="n">
-        <v>3.63</v>
+        <v>38.45</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.196</v>
+        <v>2.595</v>
       </c>
       <c r="C9" t="n">
-        <v>7.019</v>
+        <v>3.984</v>
       </c>
       <c r="D9" t="n">
-        <v>119.62</v>
+        <v>53.53</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.373</v>
+        <v>12.108</v>
       </c>
       <c r="C10" t="n">
-        <v>60.361</v>
+        <v>33.679</v>
       </c>
       <c r="D10" t="n">
-        <v>120.51</v>
+        <v>178.15</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.114</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.397</v>
+        <v>0.182</v>
       </c>
       <c r="D11" t="n">
-        <v>248.25</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.865</v>
+        <v>-0.024</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.112</v>
+        <v>-1.849</v>
       </c>
       <c r="D12" t="n">
-        <v>259.77</v>
+        <v>7604.17</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.232</v>
+        <v>3.48</v>
       </c>
       <c r="C13" t="n">
-        <v>7.769</v>
+        <v>5.803</v>
       </c>
       <c r="D13" t="n">
-        <v>48.49</v>
+        <v>66.75</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.688475410143534</v>
+        <v>3.978358876137507</v>
       </c>
       <c r="C4" t="n">
-        <v>4.442982060568673</v>
+        <v>4.151062857537043</v>
       </c>
       <c r="D4" t="n">
-        <v>20.46</v>
+        <v>4.34</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7387813992586866</v>
+        <v>0.3393759380419009</v>
       </c>
       <c r="F4" t="n">
-        <v>3.120716199987422</v>
+        <v>1.747765100410972</v>
       </c>
       <c r="G4" t="n">
-        <v>322.41</v>
+        <v>414.99</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.434</v>
+        <v>0.355</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.14</v>
+        <v>-83.27</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.704662682315442</v>
+        <v>2.567730919204264</v>
       </c>
       <c r="C6" t="n">
-        <v>5.904063626287734</v>
+        <v>2.489173334963498</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>-3.06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4019315556476864</v>
+        <v>0.7586241552530435</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4032155054815596</v>
+        <v>0.590620580636332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.32</v>
+        <v>-22.15</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
